--- a/User Details.xlsx
+++ b/User Details.xlsx
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
